--- a/DOH/place_table.xlsx
+++ b/DOH/place_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jomelle Wong\GitHub\workstuff\DOH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39FB4F72-8695-408B-9816-522C386B364E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B78561E4-83F6-4B14-8C71-B63DEB050B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21040" yWindow="10520" windowWidth="17290" windowHeight="10290" xr2:uid="{0DEE8285-018D-F94C-8832-05BDDABD6FA1}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8454" uniqueCount="2971">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8471" uniqueCount="2987">
   <si>
     <t>PSGC</t>
   </si>
@@ -8945,6 +8945,54 @@
   </si>
   <si>
     <t>Cotabato City</t>
+  </si>
+  <si>
+    <t>City of San Fernando</t>
+  </si>
+  <si>
+    <t>CAR</t>
+  </si>
+  <si>
+    <t>ILOCOS</t>
+  </si>
+  <si>
+    <t>CAGAYAN VALLEY</t>
+  </si>
+  <si>
+    <t>CENTRAL LUZON</t>
+  </si>
+  <si>
+    <t>CALABARZON</t>
+  </si>
+  <si>
+    <t>MIMAROPA</t>
+  </si>
+  <si>
+    <t>BICOL</t>
+  </si>
+  <si>
+    <t>WESTERN VISAYAS</t>
+  </si>
+  <si>
+    <t>CENTRAL VISAYAS</t>
+  </si>
+  <si>
+    <t>EASTERN VISAYAS</t>
+  </si>
+  <si>
+    <t>ZAMBOANGA PENINSULA</t>
+  </si>
+  <si>
+    <t>NORTHERN MINDANAO</t>
+  </si>
+  <si>
+    <t>DAVAO</t>
+  </si>
+  <si>
+    <t>SOCCSARGEN</t>
+  </si>
+  <si>
+    <t>BARMM</t>
   </si>
 </sst>
 </file>
@@ -9312,8 +9360,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3737F51-1257-BD45-ABF5-CB559B7FD273}">
   <dimension ref="A1:F3540"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1519" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E1533" sqref="E1533"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1713" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1729" sqref="F1729"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -9356,9 +9405,11 @@
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
@@ -9712,7 +9763,9 @@
       <c r="E20" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F20" s="1"/>
+      <c r="F20" s="1" t="s">
+        <v>2972</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
@@ -11362,7 +11415,9 @@
       <c r="E104" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F104" s="1"/>
+      <c r="F104" s="1" t="s">
+        <v>2973</v>
+      </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
@@ -13940,7 +13995,9 @@
       <c r="E234" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F234" s="1"/>
+      <c r="F234" s="1" t="s">
+        <v>2974</v>
+      </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A235" s="1">
@@ -15894,7 +15951,9 @@
       <c r="E333" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F333" s="1"/>
+      <c r="F333" s="1" t="s">
+        <v>2975</v>
+      </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A334" s="1">
@@ -17637,7 +17696,7 @@
         <v>212</v>
       </c>
       <c r="F421" s="2" t="s">
-        <v>2898</v>
+        <v>2971</v>
       </c>
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.35">
@@ -18620,7 +18679,9 @@
       <c r="E471" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F471" s="1"/>
+      <c r="F471" s="1" t="s">
+        <v>2976</v>
+      </c>
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A472" s="1">
@@ -21554,7 +21615,9 @@
       <c r="E619" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F619" s="1"/>
+      <c r="F619" s="1" t="s">
+        <v>2977</v>
+      </c>
     </row>
     <row r="620" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A620" s="1">
@@ -23108,7 +23171,9 @@
       <c r="E698" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F698" s="1"/>
+      <c r="F698" s="1" t="s">
+        <v>2978</v>
+      </c>
     </row>
     <row r="699" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A699" s="1">
@@ -25498,7 +25563,9 @@
       <c r="E819" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F819" s="1"/>
+      <c r="F819" s="1" t="s">
+        <v>2979</v>
+      </c>
     </row>
     <row r="820" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A820" s="1">
@@ -28268,7 +28335,9 @@
       <c r="E959" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F959" s="1"/>
+      <c r="F959" s="1" t="s">
+        <v>2980</v>
+      </c>
     </row>
     <row r="960" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A960" s="1">
@@ -30986,7 +31055,9 @@
       <c r="E1096" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1096" s="1"/>
+      <c r="F1096" s="1" t="s">
+        <v>2981</v>
+      </c>
     </row>
     <row r="1097" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1097" s="1">
@@ -33956,7 +34027,9 @@
       <c r="E1246" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1246" s="1"/>
+      <c r="F1246" s="1" t="s">
+        <v>2982</v>
+      </c>
     </row>
     <row r="1247" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1247" s="1">
@@ -35458,7 +35531,9 @@
       <c r="E1322" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1322" s="1"/>
+      <c r="F1322" s="1" t="s">
+        <v>2983</v>
+      </c>
     </row>
     <row r="1323" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1323" s="1">
@@ -37412,7 +37487,9 @@
       <c r="E1421" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1421" s="1"/>
+      <c r="F1421" s="1" t="s">
+        <v>2984</v>
+      </c>
     </row>
     <row r="1422" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1422" s="1">
@@ -38486,7 +38563,9 @@
       <c r="E1476" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1476" s="1"/>
+      <c r="F1476" s="1" t="s">
+        <v>2985</v>
+      </c>
     </row>
     <row r="1477" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1477" s="1">
@@ -39564,7 +39643,9 @@
       <c r="E1531" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1531" s="1"/>
+      <c r="F1531" s="1" t="s">
+        <v>2406</v>
+      </c>
     </row>
     <row r="1532" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1532" s="1">
@@ -41118,6 +41199,9 @@
         <v>1</v>
       </c>
       <c r="E1610" s="1"/>
+      <c r="F1610" s="2" t="s">
+        <v>2986</v>
+      </c>
     </row>
     <row r="1611" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1611" s="1">
